--- a/Top25_Companies.xlsx
+++ b/Top25_Companies.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
